--- a/medicine/Enfance/Alex_Scarrow/Alex_Scarrow.xlsx
+++ b/medicine/Enfance/Alex_Scarrow/Alex_Scarrow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alex Scarrow, né le 14 février 1966 à Hertford[1],[2], est un romancier britannique, auteur de plusieurs récits de science-fiction, de thrillers et d'ouvrages de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex Scarrow, né le 14 février 1966 à Hertford est un romancier britannique, auteur de plusieurs récits de science-fiction, de thrillers et d'ouvrages de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est guitariste dans un groupe rock pendant une dizaine d'années après avoir terminé ses études. Il abandonne cette carrière de musicien  pour devenir graphiste, puis concepteur de jeux vidéo.
 Il aborde la littérature par l'écriture de scénarios. Son premier roman, A Thousand Suns, paru en 2006, est d'ailleurs issu de ses scénarios. Il fait ensuite paraître plusieurs thrillers pour adultes, notamment La Théorie des dominos et L'Effet domino tout en poursuivant l'écriture de scénarios.
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Time Riders
-Time Riders, Nathan, 2012 ((en) TimeRiders, 2010)
+          <t>Série Time Riders</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Time Riders, Nathan, 2012 ((en) TimeRiders, 2010)
 Le Jour du prédateur, Nathan, 2012 ((en) Day of the Predator, 2010)
 Code apocalypse, Nathan, 2012 ((en) The Doomsday Code, 2011)
 La Guerre éternelle, Nathan, 2013 ((en) The Eternal War, 2011)
@@ -556,18 +575,120 @@
 Les Brumes de Londres, Nathan, 2013 ((en) City of Shadows, 2012)
 Les Seigneurs des mers, Nathan, 2014 ((en) The Pirate Kings, 2013)
 La Prophétie maya, Nathan, 2014 ((en) The Mayan Prophecy, 2013)
-Le Piège infini, Nathan, 2015 ((en) The Infinity Cage, 2014)
-Série Ellie Quin
-(en) The Legend of Ellie Quin, 2013
+Le Piège infini, Nathan, 2015 ((en) The Infinity Cage, 2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alex_Scarrow</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alex_Scarrow</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Ellie Quin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Legend of Ellie Quin, 2013
 (en) The World According to Ellie Quin, 2013
 (en) Beneath the Neon Sky, 2013
-(en) Ellie Quin in Wonderland, 2014Publié uniquement au format numérique
-Série ReMade ((en) Plague Land)
-ReMade, Casterman, 2017 ((en) Re-Made, 2016)
+(en) Ellie Quin in Wonderland, 2014Publié uniquement au format numérique</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alex_Scarrow</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alex_Scarrow</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série ReMade ((en) Plague Land)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ReMade, Casterman, 2017 ((en) Re-Made, 2016)
 ReBorn, Casterman, 2018 ((en) Re-Born, 2017)
-ReBuilt, Casterman, 2019 ((en) A Remade Novel (Plague World, Plague Nation, Plague Land), 2018)
-Romans indépendants
-(en) A Thousand Suns, 2006
+ReBuilt, Casterman, 2019 ((en) A Remade Novel (Plague World, Plague Nation, Plague Land), 2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alex_Scarrow</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alex_Scarrow</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) A Thousand Suns, 2006
 La Théorie des dominos, Le Cherche midi, 2010 ((en) Last Light, 2007)
 (en) October Skies, 2008
 L'Effet domino, Le Cherche midi, 2012 ((en) Afterlight, 2010)
